--- a/excelwriter.xlsx
+++ b/excelwriter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55E939E3-BF1A-4649-8266-8F11E0492B90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB9F5F58-F218-488D-95C5-04384217E3C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,17 +197,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>

--- a/excelwriter.xlsx
+++ b/excelwriter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB9F5F58-F218-488D-95C5-04384217E3C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF00756C-7146-4B6C-81B7-7D4437B1DFDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="22">
   <si>
     <t>IF</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>DADDIU R1, R0, #0000</t>
-  </si>
-  <si>
-    <t>J L1</t>
   </si>
   <si>
     <t>SELF MADE ARE</t>
@@ -494,18 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="H5" sqref="H5:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="C1" s="10">
         <v>1</v>
       </c>
@@ -570,7 +567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -609,7 +606,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -648,7 +645,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -691,12 +688,12 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -730,7 +727,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -748,11 +745,21 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="1"/>
@@ -761,7 +768,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -780,11 +787,21 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -792,7 +809,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -812,18 +829,28 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -842,17 +869,27 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="1"/>
+      <c r="O9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -868,30 +905,30 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -908,29 +945,29 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -948,28 +985,28 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -988,27 +1025,27 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1028,85 +1065,86 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="F19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="I19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="L19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="N19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="O19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="Q19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="R19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>14</v>
@@ -1129,7 +1167,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>1</v>
       </c>
@@ -1188,7 +1226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -1225,7 +1263,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1262,7 +1300,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1303,7 +1341,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1344,7 +1382,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1383,7 +1421,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -1422,7 +1460,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>6</v>
       </c>
@@ -1461,7 +1499,7 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -1498,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
@@ -1521,7 +1559,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
@@ -1582,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>0</v>
       </c>
@@ -1618,7 +1656,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>1</v>
       </c>
@@ -1654,7 +1692,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>2</v>
       </c>
@@ -1694,7 +1732,7 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>3</v>
       </c>
@@ -1734,7 +1772,7 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>4</v>
       </c>
@@ -1772,7 +1810,7 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>5</v>
       </c>
@@ -1810,7 +1848,7 @@
       </c>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>6</v>
       </c>
@@ -1848,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>7</v>
       </c>
@@ -1885,12 +1923,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="C44" s="10">
         <v>1</v>
       </c>
@@ -1937,7 +1975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -1970,7 +2008,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -2003,7 +2041,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -2038,7 +2076,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -2063,7 +2101,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>4</v>
       </c>
@@ -2088,7 +2126,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>5</v>
       </c>
@@ -2113,7 +2151,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>6</v>
       </c>

--- a/excelwriter.xlsx
+++ b/excelwriter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF00756C-7146-4B6C-81B7-7D4437B1DFDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39F20FCE-C964-4EC6-8C7F-0D2D717B9B99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="28">
   <si>
     <t>IF</t>
   </si>
@@ -73,9 +73,6 @@
     <t>BGTZC R1, L1</t>
   </si>
   <si>
-    <t>DADDIU R1, R0, #0000</t>
-  </si>
-  <si>
     <t>SELF MADE ARE</t>
   </si>
   <si>
@@ -86,6 +83,27 @@
   </si>
   <si>
     <t>AREA</t>
+  </si>
+  <si>
+    <t>DADDIU R1,R0,#0000</t>
+  </si>
+  <si>
+    <t>DADDIU R2,R0,#0000</t>
+  </si>
+  <si>
+    <t>DADDU R3,R1,R2</t>
+  </si>
+  <si>
+    <t>DADDU R3,R1,R1</t>
+  </si>
+  <si>
+    <t>DADDIU R3,R0,#0000</t>
+  </si>
+  <si>
+    <t>DADDIU R3,R0,#6969</t>
+  </si>
+  <si>
+    <t>XORI R1,R2,#1000</t>
   </si>
 </sst>
 </file>
@@ -163,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +208,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,85 +515,90 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="C1" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13">
         <v>5</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="13">
         <v>6</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="13">
         <v>7</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="13">
         <v>8</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="13">
         <v>9</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="13">
         <v>10</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="13">
         <v>11</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="13">
         <v>12</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="13">
         <v>13</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="13">
         <v>14</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="13">
         <v>15</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="13">
         <v>16</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="13">
         <v>17</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="13">
         <v>18</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="13">
         <v>19</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="13">
         <v>20</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="13">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="X1" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -605,13 +631,14 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -644,13 +671,14 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -687,13 +715,14 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -726,13 +755,14 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -767,13 +797,14 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -808,13 +839,14 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -849,13 +881,14 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -888,13 +921,14 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -927,13 +961,14 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -966,13 +1001,14 @@
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1005,13 +1041,14 @@
         <v>4</v>
       </c>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1044,13 +1081,14 @@
       <c r="W13" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1081,70 +1119,70 @@
       <c r="W14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="N19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="O19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="Q19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="R19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>14</v>
@@ -1167,7 +1205,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <v>1</v>
       </c>
@@ -1226,7 +1264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -1263,7 +1301,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1300,7 +1338,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1341,7 +1379,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1382,7 +1420,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1421,7 +1459,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -1460,7 +1498,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>6</v>
       </c>
@@ -1499,7 +1537,7 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -1536,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
@@ -1559,7 +1597,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
@@ -1620,7 +1658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>0</v>
       </c>
@@ -1656,7 +1694,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>1</v>
       </c>
@@ -1692,7 +1730,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>2</v>
       </c>
@@ -1732,7 +1770,7 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>3</v>
       </c>
@@ -1772,7 +1810,7 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>4</v>
       </c>
@@ -1810,7 +1848,7 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>5</v>
       </c>
@@ -1848,7 +1886,7 @@
       </c>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>6</v>
       </c>
@@ -1886,7 +1924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>7</v>
       </c>
@@ -1923,12 +1961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="10">
         <v>1</v>
       </c>
@@ -1975,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -2008,7 +2046,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -2041,7 +2079,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -2076,7 +2114,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -2101,7 +2139,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>4</v>
       </c>
@@ -2126,7 +2164,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>5</v>
       </c>
@@ -2151,7 +2189,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>6</v>
       </c>

--- a/excelwriter.xlsx
+++ b/excelwriter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39F20FCE-C964-4EC6-8C7F-0D2D717B9B99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82719923-D416-4A9B-A5DD-49A721A9B7E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="X14" sqref="C2:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
